--- a/Project Plants Material/Materials.xlsx
+++ b/Project Plants Material/Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PliamOnedrive\OneDrive - HATZ GROUP\Pliam\Desktop\Project Plants Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa205f90bb7cf89a/Desktop/GitHub/Plant-Watering/Project Plants Material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F118EE3D-5DEA-4E05-BD39-042475FCBABB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F118EE3D-5DEA-4E05-BD39-042475FCBABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A960079D-1737-4068-9D51-93AC5742A02C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F85F9FDE-A54A-4617-A08E-BC533E334DD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F85F9FDE-A54A-4617-A08E-BC533E334DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -45,16 +50,7 @@
     <t>Price</t>
   </si>
   <si>
-    <t>WEMOS D1 MINI ESP8266 NODEMCU 4M - WIFI DEVELOPMENT BOARD</t>
-  </si>
-  <si>
     <t>cableworks.gr</t>
-  </si>
-  <si>
-    <t>https://www.cableworks.gr/ilektronika/arduino-and-microcontrollers/microcontrollers/esp8266/wemos-d1-mini-esp8266-nodemcu-4m-wifi-development-board/</t>
-  </si>
-  <si>
-    <t>1116.109</t>
   </si>
   <si>
     <t>CAPACITIVE SOIL MOISTURE SENSOR MODULE FOR ARDUINO</t>
@@ -138,7 +134,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€-408]_-;\-* #,##0.00\ [$€-408]_-;_-* &quot;-&quot;??\ [$€-408]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-408]_-;\-* #,##0.00\ [$€-408]_-;_-* &quot;-&quot;??\ [$€-408]_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -191,10 +187,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -203,7 +199,7 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€-408]_-;\-* #,##0.00\ [$€-408]_-;_-* &quot;-&quot;??\ [$€-408]_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-408]_-;\-* #,##0.00\ [$€-408]_-;_-* &quot;-&quot;??\ [$€-408]_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -222,8 +218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85AF9749-C985-49B7-9CB0-13E40C4D3EAF}" name="Πίνακας1" displayName="Πίνακας1" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{0C54B450-188C-4B35-913F-653926DC0E4D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85AF9749-C985-49B7-9CB0-13E40C4D3EAF}" name="Πίνακας1" displayName="Πίνακας1" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9" xr:uid="{0C54B450-188C-4B35-913F-653926DC0E4D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CF901C82-01AF-49CF-B1D5-CFDD81202AE4}" name="Name"/>
     <tableColumn id="2" xr3:uid="{60F9F6BE-F10C-4BA9-83E4-2FB2798ABD07}" name="Code" dataDxfId="1"/>
@@ -532,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF7B15F-3CF2-4EB8-B54F-A54B8DBE745C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -566,19 +562,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6.98</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>4.8</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -606,10 +602,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>1.1200000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -623,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.05</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.5</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -640,10 +636,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3.5</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.3</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -657,76 +653,58 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="1">
-        <v>3.5</v>
+        <v>0.79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
-        <f>SUM(D2:D9)</f>
-        <v>22.040000000000003</v>
+        <f>SUM(D2:D8)</f>
+        <v>15.059999999999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{64818FE0-FEE5-4637-B6E8-636C294E6BC8}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{9BA7E726-8344-493B-B2F3-6D85482BC1F1}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{E531388C-01AC-4013-8957-7D012C36C0F5}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{B8F508ED-372C-43A2-B527-0B3F16A562C6}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{ECD66321-0398-45EA-9A39-9967C722DE0F}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{2DCC2643-CBF4-47DC-8BDA-97B69DE68439}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{FCF251DB-EF29-4A6B-8BE4-2DCF3290445A}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{CDC9F598-5BD7-4441-93EA-7BA4E841051D}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9BA7E726-8344-493B-B2F3-6D85482BC1F1}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{E531388C-01AC-4013-8957-7D012C36C0F5}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{B8F508ED-372C-43A2-B527-0B3F16A562C6}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{ECD66321-0398-45EA-9A39-9967C722DE0F}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{2DCC2643-CBF4-47DC-8BDA-97B69DE68439}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{FCF251DB-EF29-4A6B-8BE4-2DCF3290445A}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{CDC9F598-5BD7-4441-93EA-7BA4E841051D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:B7 B9" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:B6 B8" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>